--- a/Pach Bálint/teszteles/Tesztnemtudomhanyadik.xlsx
+++ b/Pach Bálint/teszteles/Tesztnemtudomhanyadik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PachBalint\Desktop\12D\KA_12D.github.io\Pach Bálint\teszteles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6588A158-0D2A-4137-BD5C-B9BB9BBE5C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABA253-382F-456A-B318-D497C4003139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -963,7 +963,7 @@
  Test metrics</t>
   </si>
   <si>
-    <t>https://katonaszg-my.sharepoint.com/:v:/g/personal/balint_pach_katonaj-mkszig_hu/Ea56etYuYMNDsvk-OKX5kT0B0Hn7n9Nu3Oo83g4W8zIOTQ?e=abL8UF&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJTdHJlYW1XZWJBcHAiLCJyZWZlcnJhbFZpZXciOiJTaGFyZURpYWxvZyIsInJlZmVycmFsQXBwUGxhdGZvcm0iOiJXZWIiLCJyZWZlcnJhbE1vZGUiOiJ2aWV3In19</t>
+    <t>képek(screen)\Média3.mp4</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -31850,8 +31850,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32077,7 +32077,7 @@
     <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" display="https://katonaszg-my.sharepoint.com/:v:/g/personal/balint_pach_katonaj-mkszig_hu/Ea56etYuYMNDsvk-OKX5kT0B0Hn7n9Nu3Oo83g4W8zIOTQ?e=abL8UF&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJTdHJlYW1XZWJBcHAiLCJyZWZlcnJhbFZpZXciOiJTaGFyZURpYWxvZyIsInJlZmVycmFsQXBwUGxhdGZvcm0iOiJXZWIiLCJyZWZlcnJhbE1vZGUiOiJ2aWV3In19" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
